--- a/tools/dgssi/dnssi-2023-2.xlsx
+++ b/tools/dgssi/dnssi-2023-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/dgssi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31DBD9B-85E3-684C-86D2-E8003FFBF55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4108046-82A3-DD4D-A6BD-27AF077AD262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -1467,12 +1467,6 @@
     <t>fr</t>
   </si>
   <si>
-    <t>Directive Nationale de la Sécurité des Systèmes d'Information</t>
-  </si>
-  <si>
-    <t>Directive Nationale de la Sécurité des Systèmes d'Information (DNSSI)</t>
-  </si>
-  <si>
     <t>Aucun</t>
   </si>
   <si>
@@ -1486,6 +1480,12 @@
   </si>
   <si>
     <t>Optimisé</t>
+  </si>
+  <si>
+    <t>Directive Nationale de la Sécurité des Systèmes d'Information (MAROC)</t>
+  </si>
+  <si>
+    <t>Directive Nationale de la Sécurité des Systèmes d'Information (DNSSI MAROC)</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2519A7FD-2D2C-7048-A9E4-67B35B805606}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="231" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>398</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,7 +1930,7 @@
         <v>399</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1978,7 +1978,7 @@
         <v>406</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1986,7 +1986,7 @@
         <v>407</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4297,7 +4297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8B2205-0255-9D48-A3BD-7B9F41B948F6}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -4341,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -4350,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -4359,7 +4359,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -4368,7 +4368,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C7" s="5"/>
     </row>
